--- a/TECH/TEST/ST/MANAGE/SWSYS_TS.xlsx
+++ b/TECH/TEST/ST/MANAGE/SWSYS_TS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18135" windowHeight="7680"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18135" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
   <si>
     <t>SERIS</t>
   </si>
@@ -168,9 +168,6 @@
     <t>T5</t>
   </si>
   <si>
-    <t>T7</t>
-  </si>
-  <si>
     <t>T8</t>
   </si>
   <si>
@@ -187,18 +184,6 @@
   </si>
   <si>
     <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T25</t>
   </si>
   <si>
     <t>T1.4</t>
@@ -296,9 +281,6 @@
     <t>T5.1</t>
   </si>
   <si>
-    <t>T7.1</t>
-  </si>
-  <si>
     <t>T8.1</t>
   </si>
   <si>
@@ -320,33 +302,12 @@
     <t>T14.1</t>
   </si>
   <si>
-    <t>T15.1</t>
-  </si>
-  <si>
-    <t>T16.1</t>
-  </si>
-  <si>
-    <t>T16.2</t>
-  </si>
-  <si>
-    <t>T17.1</t>
-  </si>
-  <si>
     <t>T4.2</t>
   </si>
   <si>
     <t>T5.2</t>
   </si>
   <si>
-    <t>T17.2</t>
-  </si>
-  <si>
-    <t>T17.3</t>
-  </si>
-  <si>
-    <t>T18.4</t>
-  </si>
-  <si>
     <t>View user information</t>
   </si>
   <si>
@@ -369,18 +330,10 @@
   </si>
   <si>
     <t>Sending data from device to AWS cloud IoT core</t>
-  </si>
-  <si>
-    <t>Verification of correct storage of raw data and 
-structured data in the cloud database</t>
   </si>
   <si>
     <t>Verification of sending real-time data to Synchronizer 
 application</t>
-  </si>
-  <si>
-    <t>Checking functionality of viewing real-time data for 
-particular device from web browser interface for monitoring</t>
   </si>
   <si>
     <t>Create user</t>
@@ -519,9 +472,6 @@
     <t>Downloading history data from the system</t>
   </si>
   <si>
-    <t>Viewing real-time data from the station</t>
-  </si>
-  <si>
     <t>Viewing station history</t>
   </si>
   <si>
@@ -532,24 +482,15 @@
 Otherwise , test fails.</t>
   </si>
   <si>
-    <t>Testing on storing of structured data into database</t>
-  </si>
-  <si>
     <t>Testing on sending of real-time data to synchronizer</t>
   </si>
   <si>
-    <t>Testing on synchronization of data with browsers</t>
-  </si>
-  <si>
     <t>Testing on getting device health status</t>
   </si>
   <si>
     <t>Testing on downloading of history data</t>
   </si>
   <si>
-    <t>Testing on viewing real-time station information</t>
-  </si>
-  <si>
     <t>Testing on viewing history information of station</t>
   </si>
   <si>
@@ -563,9 +504,6 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>T26</t>
   </si>
   <si>
     <t>The user should be able to login.</t>
@@ -643,9 +581,6 @@
   <si>
     <t>Admin-user click on a particular user name 
 from the list of users from user page.</t>
-  </si>
-  <si>
-    <t>It seems there is problem in handling data in cloud cache.</t>
   </si>
   <si>
     <r>
@@ -685,10 +620,6 @@
     <t>1) Updated information of that particular user should be available for viewing.</t>
   </si>
   <si>
-    <t>"There was an unexpected error (type=Not Found, status=404)."
-Page showed error!</t>
-  </si>
-  <si>
     <t>Go to users page and click on a particular user.</t>
   </si>
   <si>
@@ -724,10 +655,6 @@
 Navigate back to history record page</t>
   </si>
   <si>
-    <t>.It should have fetched newly updated data and 
-display it correctly. Otherwise, test fails.</t>
-  </si>
-  <si>
     <t>T2.5</t>
   </si>
   <si>
@@ -769,9 +696,6 @@
 selected station/stations. Otherwise test fails.</t>
   </si>
   <si>
-    <t>Downloading never end.</t>
-  </si>
-  <si>
     <t>Test for adding new station</t>
   </si>
   <si>
@@ -792,9 +716,6 @@
     <t>The station shoud have been removed from the list. Otherwise, test fails.</t>
   </si>
   <si>
-    <t>Where is  option for removal of the station.</t>
-  </si>
-  <si>
     <t>Login using  password for a particular user.</t>
   </si>
   <si>
@@ -832,9 +753,6 @@
     <t>3.2.5.2</t>
   </si>
   <si>
-    <t>3.2.6</t>
-  </si>
-  <si>
     <t>3.2.8</t>
   </si>
   <si>
@@ -848,6 +766,54 @@
   </si>
   <si>
     <t>Edited testcases and set baseline.</t>
+  </si>
+  <si>
+    <t>It should have fetched newly updated data and 
+display it correctly. Otherwise, test fails.</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T6.1</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Precondition: Consider a particular already logged into the system and a station is assigned to that user.Make sure device is sending data correctly.
+Go to dashboard page.</t>
+  </si>
+  <si>
+    <t>Real-time data should be displayed on graph of the dashboard.</t>
+  </si>
+  <si>
+    <t>In case of station error, the system should send health dat/error alert via email.</t>
+  </si>
+  <si>
+    <t>Station user will receive notification email.Then, test passes.
+Otherwise, test fails.</t>
+  </si>
+  <si>
+    <t>T13.2</t>
+  </si>
+  <si>
+    <t>T14.2</t>
+  </si>
+  <si>
+    <t>T14.3</t>
+  </si>
+  <si>
+    <t>T14.4</t>
+  </si>
+  <si>
+    <t>Go to station health dat page and check each station's status.</t>
+  </si>
+  <si>
+    <t>The system should show device health data of respective stations.</t>
   </si>
 </sst>
 </file>
@@ -1181,14 +1147,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,17 +1181,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1236,30 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1295,7 +1261,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1610,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1645,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1653,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1661,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1699,24 +1665,24 @@
         <v>43328</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B21" s="4">
         <v>43485</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1874,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,7 +1854,7 @@
     <col min="4" max="4" width="75.28515625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="66.85546875" customWidth="1"/>
+    <col min="7" max="7" width="72.42578125" customWidth="1"/>
     <col min="8" max="8" width="68.28515625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="68.42578125" customWidth="1"/>
@@ -1923,7 +1889,7 @@
         <v>32</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>34</v>
@@ -1950,29 +1916,29 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>75</v>
+      <c r="B3" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>206</v>
+        <v>58</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>34</v>
@@ -1980,25 +1946,25 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>207</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>34</v>
@@ -2006,25 +1972,25 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>208</v>
+        <v>61</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>34</v>
@@ -2032,55 +1998,55 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>208</v>
+        <v>62</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="89.25" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>69</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="89.25" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>208</v>
+        <v>145</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>34</v>
@@ -2091,25 +2057,25 @@
       <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="69.75" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>209</v>
+        <v>71</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>34</v>
@@ -2120,25 +2086,25 @@
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="105.75" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>210</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>34</v>
@@ -2149,91 +2115,91 @@
       <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="83.25" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>210</v>
+        <v>74</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>210</v>
+        <v>161</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="85.5" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>126</v>
+      <c r="B12" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>211</v>
+        <v>98</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>34</v>
@@ -2241,25 +2207,25 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="91.5" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>211</v>
+        <v>99</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>34</v>
@@ -2267,25 +2233,25 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>211</v>
+        <v>89</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>34</v>
@@ -2293,77 +2259,77 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="84.75" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>212</v>
+        <v>90</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="126" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="20" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>212</v>
+        <v>93</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="20" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>212</v>
+        <v>112</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>44</v>
@@ -2371,29 +2337,29 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="72.75" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>128</v>
+      <c r="A18" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>208</v>
+        <v>94</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>34</v>
@@ -2401,25 +2367,25 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="95.25" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>208</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>34</v>
@@ -2427,29 +2393,29 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="94.5" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>177</v>
+      <c r="A20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>213</v>
+        <v>154</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>34</v>
@@ -2457,468 +2423,396 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>214</v>
+        <v>158</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="114" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>129</v>
+      <c r="A22" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="E22" s="28"/>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>139</v>
+    <row r="23" spans="1:10" ht="60">
+      <c r="A23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>219</v>
+        <v>97</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>140</v>
+    <row r="24" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A24" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>219</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>141</v>
+    <row r="25" spans="1:10" ht="30">
+      <c r="A25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>215</v>
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>142</v>
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="30">
-      <c r="A27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>143</v>
+    <row r="27" spans="1:10" ht="27" customHeight="1">
+      <c r="A27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>193</v>
+        <v>121</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>215</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E28" s="28"/>
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="I28" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="30">
-      <c r="A29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>145</v>
-      </c>
+    <row r="29" spans="1:10">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="20" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>213</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>205</v>
+        <v>176</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>93</v>
+    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="A30" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="I30" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="30">
-      <c r="A31" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>94</v>
+    <row r="31" spans="1:10">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>199</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>200</v>
+    <row r="32" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="57">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="3">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="71.25" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="25">
         <v>2</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>153</v>
+      <c r="G34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="47">
-        <v>2</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="25">
-        <v>2</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="H39" s="15" t="s">
+      <c r="J34" s="13"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="H36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="16" t="e">
+      <c r="I36" s="16" t="e">
         <f>IF(I3=P1,1,0)+IF(I4=P1,1,0)+IF(I5=P1,1,0)+IF(I6=P1,1,0)+
 IF(I7=P1,1,0)+IF(I8=P1,1,0)+IF(I9=P1,1,0)+IF(I10=P1,1,0)+
 IF(I12=P1,1,0)+IF(I13=P1,1,0)+IF(I14=P1,1,0)+IF(I15=P1,1,0)+
 IF(I16=P1,1,0)+IF(I17=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I18=P1,1,0)+IF(I19=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I59=P1,1,0)+IF(I60=P1,1,0)+IF(I22=P1,1,0)+IF(#REF!=P1,1,0)+
+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I56=P1,1,0)+IF(I57=P1,1,0)+IF(I22=P1,1,0)+IF(#REF!=P1,1,0)+
+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I23=P1,1,0)+IF(#REF!=P1,1,0)+
+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I24=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I25=P1,1,0)+IF(#REF!=P1,1,0)+
+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I26=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I27=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I28=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I29=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I30=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
@@ -2926,33 +2820,33 @@
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
 IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I31=P1,1,0)+IF(I32=P1,1,0)+IF(102=P1,1,0)+IF(#REF!=P1,1,0)+
-IF(I33=P1,1,0)+IF(I34=P1,1,0)+IF(I35=P1,1,0)+IF(I36=P1,1,0)++IF(I37=P1,1,0)</f>
+IF(#REF!=P1,1,0)+IF(#REF!=P1,1,0)+IF(I28=P1,1,0)+IF(I29=P1,1,0)+IF(102=P1,1,0)+IF(#REF!=P1,1,0)+
+IF(I30=P1,1,0)+IF(I31=P1,1,0)+IF(I32=P1,1,0)+IF(I33=P1,1,0)++IF(I34=P1,1,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="H40" s="15" t="s">
+    <row r="37" spans="1:10">
+      <c r="H37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="17" t="e">
+      <c r="I37" s="17" t="e">
         <f>IF(I3=Q1,1,0)+IF(I4=Q1,1,0)+IF(I5=Q1,1,0)+IF(I6=Q1,1,0)+
 IF(I7=Q1,1,0)+IF(I8=Q1,1,0)+IF(I9=Q1,1,0)+IF(I10=Q1,1,0)+
 IF(I12=Q1,1,0)+IF(I13=Q1,1,0)+IF(I14=Q1,1,0)+IF(I15=Q1,1,0)+
 IF(I16=Q1,1,0)+IF(I17=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I18=Q1,1,0)+IF(I19=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
-IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I59=Q1,1,0)+IF(I60=Q1,1,0)+
+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I56=Q1,1,0)+IF(I57=Q1,1,0)+
 IF(I22=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I23=Q1,1,0)+IF(#REF!=Q1,1,0)+
+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I24=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I25=Q1,1,0)+IF(#REF!=Q1,1,0)+
+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I26=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I27=Q1,1,0)+IF(#REF!=Q1,1,0)+
-IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I28=Q1,1,0)+IF(#REF!=Q1,1,0)+
-IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I29=Q1,1,0)+IF(#REF!=Q1,1,0)+
-IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I30=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
@@ -2960,41 +2854,41 @@
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
 IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+
-IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I31=Q1,1,0)+IF(I32=Q1,1,0)+
-IF(102=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I33=Q1,1,0)+IF(I34=Q1,1,0)+
-IF(I35=Q1,1,0)+IF(I36=Q1,1,0)++IF(I37=Q1,1,0)</f>
+IF(#REF!=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I28=Q1,1,0)+IF(I29=Q1,1,0)+
+IF(102=Q1,1,0)+IF(#REF!=Q1,1,0)+IF(I30=Q1,1,0)+IF(I31=Q1,1,0)+
+IF(I32=Q1,1,0)+IF(I33=Q1,1,0)++IF(I34=Q1,1,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="H41" s="15" t="s">
+    <row r="38" spans="1:10">
+      <c r="H38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I34">
       <formula1>$P$1:$R$1</formula1>
     </dataValidation>
   </dataValidations>
